--- a/data/trans_dic/P1423-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P1423-Estudios-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.05241582902232573</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.09871109260326141</v>
+        <v>0.0987110926032614</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.1131711614254665</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.04093842463829866</v>
+        <v>0.03941842554148544</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.0523109167824399</v>
+        <v>0.05404671911014965</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.0373792644370086</v>
+        <v>0.03770386118767782</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.07836938215977332</v>
+        <v>0.07741231189773307</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.09689408234387376</v>
+        <v>0.09720472781620845</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1733458098539592</v>
+        <v>0.1708206830328673</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1428897026029819</v>
+        <v>0.1460952674887188</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1784634742352128</v>
+        <v>0.1790546544536975</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.0758578203841901</v>
+        <v>0.07515435889320715</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.1261213909468619</v>
+        <v>0.1271173678118257</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1039619624840376</v>
+        <v>0.1034686167985834</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1418026177458</v>
+        <v>0.1422985042393838</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.06725726809997104</v>
+        <v>0.06769315557219256</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.0884446452856725</v>
+        <v>0.08678005307104622</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.0712173875437018</v>
+        <v>0.07112686350291871</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1264719606268811</v>
+        <v>0.1240597508105222</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1314152766741881</v>
+        <v>0.1331351174169298</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2164129506412329</v>
+        <v>0.2132282101197225</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1931234113564754</v>
+        <v>0.1935990271075729</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2206614154510211</v>
+        <v>0.2214592335168254</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.09911793396795662</v>
+        <v>0.09824238163168202</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1553687677905324</v>
+        <v>0.1562627872099609</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1346206298644607</v>
+        <v>0.1364984728208882</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.174124393303947</v>
+        <v>0.1758432246195308</v>
       </c>
     </row>
     <row r="7">
@@ -833,7 +833,7 @@
         <v>0.05770156869913579</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.08172112039662725</v>
+        <v>0.08172112039662727</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01302252414594507</v>
+        <v>0.01349031772110144</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.02370706118194012</v>
+        <v>0.02305584254551774</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.02186846683193826</v>
+        <v>0.02236293919547277</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.04529872602119372</v>
+        <v>0.04463900708213125</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.04438691828362824</v>
+        <v>0.044784323479395</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.06262824201040054</v>
+        <v>0.06203207771996869</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.07420544386144227</v>
+        <v>0.07489494499067725</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.09802250152176542</v>
+        <v>0.09905044517067421</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.02952194792834939</v>
+        <v>0.03022082035646781</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.04441858531298008</v>
+        <v>0.04379733751867605</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.05114058037999505</v>
+        <v>0.05087383465344083</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.07443747154962103</v>
+        <v>0.07402203909222979</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.02535757961572708</v>
+        <v>0.02686445253903363</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.04076139130360279</v>
+        <v>0.04051190342013771</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.03736959686496249</v>
+        <v>0.03691854002519347</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.06570590600416125</v>
+        <v>0.06475465480603169</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.06856026234746249</v>
+        <v>0.06718564255667765</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.08729153374419593</v>
+        <v>0.08759500945213977</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1019159919635824</v>
+        <v>0.1020046777359319</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.121724282721766</v>
+        <v>0.1219670032777552</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.04302203699117442</v>
+        <v>0.04335779513012437</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.05901037497740406</v>
+        <v>0.06041427385634896</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.06574622741655185</v>
+        <v>0.06501690773553494</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.08973471808224491</v>
+        <v>0.08908602553756559</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.01917901676867438</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.0531429583548267</v>
+        <v>0.05314295835482669</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.04316581866837786</v>
@@ -969,7 +969,7 @@
         <v>0.02533275680307179</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.06266030068131662</v>
+        <v>0.0626603006813166</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01584702934097848</v>
+        <v>0.01541776296052343</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01280934843920626</v>
+        <v>0.01481839887071209</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.009471845256059293</v>
+        <v>0.009089104032746768</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.03688446983375725</v>
+        <v>0.03767336267777528</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.02719409568114541</v>
+        <v>0.02593250128530931</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.02100137959326251</v>
+        <v>0.02358573066344159</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.01852275883932043</v>
+        <v>0.01767034437807016</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.05630659856098368</v>
+        <v>0.05566723399269623</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.02483752548465629</v>
+        <v>0.02418723432189936</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.02178157511376583</v>
+        <v>0.02191652453801711</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.016635124164843</v>
+        <v>0.01678650660549442</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.0507397611871731</v>
+        <v>0.0508807387081039</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.04322544119197644</v>
+        <v>0.04185295207774584</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.04774766755574712</v>
+        <v>0.04996782546746854</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.03710505953969115</v>
+        <v>0.03654787258939723</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.07348766452879604</v>
+        <v>0.07409684302558159</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.06628199809034151</v>
+        <v>0.06405518430243295</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.06312853693423572</v>
+        <v>0.06122026661527031</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.05281529268105411</v>
+        <v>0.05061671769144582</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.09134182274469686</v>
+        <v>0.0912364844009167</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.04697514526129207</v>
+        <v>0.04779802810268036</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.04645003857682668</v>
+        <v>0.0475110304444689</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.03743402757839657</v>
+        <v>0.03814101203175422</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.07516509413813076</v>
+        <v>0.07721283143062795</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.03273597255243702</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.06108102663447587</v>
+        <v>0.06108102663447589</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.07608960321522913</v>
@@ -1105,7 +1105,7 @@
         <v>0.06792752018604492</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.09256586904452382</v>
+        <v>0.09256586904452384</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.02541883440745864</v>
+        <v>0.02526144435520953</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.03461837528260348</v>
+        <v>0.03453379719176079</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.02712060083000327</v>
+        <v>0.02707254365991176</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.05267320338341357</v>
+        <v>0.053829985994399</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.06684867282896477</v>
+        <v>0.06709415924874697</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1024039627977553</v>
+        <v>0.1028190307346062</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.09144472106365321</v>
+        <v>0.09083385271833674</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1131448882280563</v>
+        <v>0.1136479146915516</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.04824503621807337</v>
+        <v>0.04832922847621215</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.07159276515548378</v>
+        <v>0.07210068546089163</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.06169715162616864</v>
+        <v>0.06143727202485024</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.08697189850087091</v>
+        <v>0.08673232491308855</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.03689358837622989</v>
+        <v>0.03770762250023565</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.04955216018330218</v>
+        <v>0.0493497660893437</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.03888771744236134</v>
+        <v>0.0391854415005285</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.07011131602249615</v>
+        <v>0.07028230713377195</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.0854714691691327</v>
+        <v>0.08637525400442105</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1245415277328467</v>
+        <v>0.1255514972874503</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1117037776192548</v>
+        <v>0.1124416286078841</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1316874707035955</v>
+        <v>0.1326871583765751</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.05955317873674727</v>
+        <v>0.05923153005602007</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.08536017024567204</v>
+        <v>0.0863885915362301</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.07406914180697283</v>
+        <v>0.07424915922486028</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.09907426562686346</v>
+        <v>0.09896138040430445</v>
       </c>
     </row>
     <row r="16">
@@ -1463,40 +1463,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>42237</v>
+        <v>40669</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>50984</v>
+        <v>52676</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>28197</v>
+        <v>28442</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>45339</v>
+        <v>44785</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>127427</v>
+        <v>127835</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>231902</v>
+        <v>228523</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>142127</v>
+        <v>145315</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>146704</v>
+        <v>147190</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>178026</v>
+        <v>176375</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>291648</v>
+        <v>293951</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>181830</v>
+        <v>180967</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>198604</v>
+        <v>199299</v>
       </c>
     </row>
     <row r="7">
@@ -1507,40 +1507,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>69391</v>
+        <v>69841</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>86202</v>
+        <v>84580</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>53723</v>
+        <v>53654</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>73168</v>
+        <v>71772</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>172826</v>
+        <v>175088</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>289517</v>
+        <v>285256</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>192092</v>
+        <v>192565</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>181392</v>
+        <v>182048</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>232613</v>
+        <v>230559</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>359281</v>
+        <v>361348</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>235452</v>
+        <v>238737</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>243873</v>
+        <v>246280</v>
       </c>
     </row>
     <row r="8">
@@ -1643,40 +1643,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>22053</v>
+        <v>22845</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>46560</v>
+        <v>45281</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>45407</v>
+        <v>46434</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>101042</v>
+        <v>99570</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>70472</v>
+        <v>71103</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>109887</v>
+        <v>108841</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>147543</v>
+        <v>148914</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>212845</v>
+        <v>215077</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>96864</v>
+        <v>99157</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>165173</v>
+        <v>162863</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>207870</v>
+        <v>206786</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>327671</v>
+        <v>325842</v>
       </c>
     </row>
     <row r="11">
@@ -1687,40 +1687,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>42941</v>
+        <v>45493</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>80054</v>
+        <v>79564</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>77594</v>
+        <v>76657</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>146561</v>
+        <v>144440</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>108851</v>
+        <v>106669</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>153161</v>
+        <v>153694</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>202640</v>
+        <v>202816</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>264311</v>
+        <v>264838</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>141159</v>
+        <v>142261</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>219433</v>
+        <v>224653</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>267238</v>
+        <v>264273</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>395009</v>
+        <v>392153</v>
       </c>
     </row>
     <row r="12">
@@ -1823,40 +1823,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>8738</v>
+        <v>8501</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>6164</v>
+        <v>7130</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>5180</v>
+        <v>4971</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>26247</v>
+        <v>26808</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>12956</v>
+        <v>12355</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>9632</v>
+        <v>10817</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>10172</v>
+        <v>9703</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>41378</v>
+        <v>40909</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>25529</v>
+        <v>24860</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>20471</v>
+        <v>20597</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>18233</v>
+        <v>18398</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>73393</v>
+        <v>73597</v>
       </c>
     </row>
     <row r="15">
@@ -1867,40 +1867,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>23835</v>
+        <v>23078</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>22975</v>
+        <v>24044</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>20292</v>
+        <v>19988</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>52293</v>
+        <v>52726</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>31578</v>
+        <v>30517</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>28953</v>
+        <v>28078</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>29003</v>
+        <v>27796</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>67125</v>
+        <v>67048</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>48282</v>
+        <v>49128</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>43654</v>
+        <v>44651</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>41029</v>
+        <v>41804</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>108724</v>
+        <v>111686</v>
       </c>
     </row>
     <row r="16">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>83286</v>
+        <v>82770</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>118387</v>
+        <v>118098</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>91603</v>
+        <v>91441</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>185446</v>
+        <v>189518</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>225895</v>
+        <v>226724</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>363639</v>
+        <v>365112</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>322992</v>
+        <v>320834</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>421839</v>
+        <v>423714</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>321106</v>
+        <v>321667</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>499059</v>
+        <v>502600</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>426310</v>
+        <v>424514</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>630458</v>
+        <v>628722</v>
       </c>
     </row>
     <row r="19">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>120883</v>
+        <v>123551</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>169458</v>
+        <v>168765</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>131348</v>
+        <v>132353</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>246840</v>
+        <v>247442</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>288825</v>
+        <v>291879</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>442249</v>
+        <v>445836</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>394549</v>
+        <v>397155</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>490971</v>
+        <v>494698</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>396371</v>
+        <v>394230</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>595029</v>
+        <v>602198</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>511797</v>
+        <v>513041</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>718188</v>
+        <v>717370</v>
       </c>
     </row>
     <row r="20">
